--- a/config/tests/test-files/Payors/Switch back Payors.xlsx
+++ b/config/tests/test-files/Payors/Switch back Payors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://attainaba-my.sharepoint.com/personal/moshe_stern_attainaba_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Payors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3E7112-B0E4-48DD-9B68-2C87E0037E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EE25AA-B999-4E67-BE7B-47AE4FE69435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{532C307E-336D-4BFE-8663-97EAF8E89D97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{532C307E-336D-4BFE-8663-97EAF8E89D97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>global_payor</t>
   </si>
   <si>
-    <t>resource_id</t>
+    <t>resource</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
